--- a/biology/Médecine/Shih_Mai-Yu/Shih_Mai-Yu.xlsx
+++ b/biology/Médecine/Shih_Mai-Yu/Shih_Mai-Yu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shih Mai-Yu ou Shi Meiyu ou Mary Stone[1] (石美玉) (Jiujiang, 1er mai 1873 - Pasadena, 30 décembre 1954) est une médecin chinoise. Elle a été parmi les premières femmes chinoises diplômées aux États-Unis et, de retour en République populaire de Chine, elle fonde un hôpital et développe la profession d'infirmière.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shih Mai-Yu ou Shi Meiyu ou Mary Stone (石美玉) (Jiujiang, 1er mai 1873 - Pasadena, 30 décembre 1954) est une médecin chinoise. Elle a été parmi les premières femmes chinoises diplômées aux États-Unis et, de retour en République populaire de Chine, elle fonde un hôpital et développe la profession d'infirmière.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shi Meiyu est né le 1er mai 1873 dans une famille chrétienne chinoise à Jiujiang, où elle passe son enfance. Fille aînée de deux sœurs, en dessous d’un frère, don père, Shek Nga (1838-1901), fut l’un des premiers prêtres chrétiens du centre de la Chine, a souhaité qu'elle devienne médecin, sur l'exemple de l'Américaine Katharine Bushnell, une médecin et missionnaire en Chine. Elle étudie dans une école méthodiste pour filles en Chine, avant d'étudier la médecine à l'université du Michigan à partir de 1892, où elle obtient son doctorat en 1896[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shi Meiyu est né le 1er mai 1873 dans une famille chrétienne chinoise à Jiujiang, où elle passe son enfance. Fille aînée de deux sœurs, en dessous d’un frère, don père, Shek Nga (1838-1901), fut l’un des premiers prêtres chrétiens du centre de la Chine, a souhaité qu'elle devienne médecin, sur l'exemple de l'Américaine Katharine Bushnell, une médecin et missionnaire en Chine. Elle étudie dans une école méthodiste pour filles en Chine, avant d'étudier la médecine à l'université du Michigan à partir de 1892, où elle obtient son doctorat en 1896,.
 Elle a été impliquée dans la mission Bethel de Shanghai et la Women's Foreign Missionary Society, entre autres organisations.
 De 1915 à 1916, il termine une année d’études supérieures à l’Université Johns Hopkins.
-Le cratère vénusien Shih Mai-Yu a été nommé en son honneur[4].
+Le cratère vénusien Shih Mai-Yu a été nommé en son honneur.
 Après la Seconde Guerre mondiale, elle se rend en Californie, où elle meurt le 30 décembre 1954 à Pasadena, à l’âge de 81 ans. 
 </t>
         </is>
